--- a/controlsignals.xlsx
+++ b/controlsignals.xlsx
@@ -1096,6 +1096,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1118,10 +1122,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1474,7 +1474,7 @@
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="B4" sqref="B4"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1519,33 +1519,33 @@
     </row>
     <row r="3" spans="1:26" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="63"/>
-      <c r="F4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="63"/>
-      <c r="I4" s="63"/>
-      <c r="J4" s="63"/>
-      <c r="K4" s="63"/>
-      <c r="L4" s="63"/>
-      <c r="M4" s="63"/>
-      <c r="N4" s="63"/>
-      <c r="O4" s="63"/>
-      <c r="P4" s="63"/>
-      <c r="Q4" s="63"/>
-      <c r="R4" s="63"/>
-      <c r="S4" s="63"/>
-      <c r="T4" s="63"/>
-      <c r="U4" s="63"/>
-      <c r="V4" s="63"/>
-      <c r="W4" s="63"/>
-      <c r="X4" s="63"/>
-      <c r="Y4" s="63"/>
-      <c r="Z4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="66"/>
     </row>
     <row r="5" spans="1:26" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25" t="s">
@@ -2365,7 +2365,7 @@
       <c r="A25" s="54" t="s">
         <v>84</v>
       </c>
-      <c r="W25" s="71">
+      <c r="W25" s="63">
         <v>1</v>
       </c>
     </row>
@@ -2657,33 +2657,33 @@
       <c r="Z32" s="12"/>
     </row>
     <row r="33" spans="1:26" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="65" t="s">
+      <c r="B33" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="66"/>
-      <c r="D33" s="66"/>
-      <c r="E33" s="66"/>
-      <c r="F33" s="66"/>
-      <c r="G33" s="66"/>
-      <c r="H33" s="66"/>
-      <c r="I33" s="66"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
-      <c r="M33" s="66"/>
-      <c r="N33" s="66"/>
-      <c r="O33" s="66"/>
-      <c r="P33" s="66"/>
-      <c r="Q33" s="66"/>
-      <c r="R33" s="66"/>
-      <c r="S33" s="66"/>
-      <c r="T33" s="66"/>
-      <c r="U33" s="66"/>
-      <c r="V33" s="66"/>
-      <c r="W33" s="66"/>
-      <c r="X33" s="66"/>
-      <c r="Y33" s="66"/>
-      <c r="Z33" s="67"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="68"/>
+      <c r="G33" s="68"/>
+      <c r="H33" s="68"/>
+      <c r="I33" s="68"/>
+      <c r="J33" s="68"/>
+      <c r="K33" s="68"/>
+      <c r="L33" s="68"/>
+      <c r="M33" s="68"/>
+      <c r="N33" s="68"/>
+      <c r="O33" s="68"/>
+      <c r="P33" s="68"/>
+      <c r="Q33" s="68"/>
+      <c r="R33" s="68"/>
+      <c r="S33" s="68"/>
+      <c r="T33" s="68"/>
+      <c r="U33" s="68"/>
+      <c r="V33" s="68"/>
+      <c r="W33" s="68"/>
+      <c r="X33" s="68"/>
+      <c r="Y33" s="68"/>
+      <c r="Z33" s="69"/>
     </row>
     <row r="34" spans="1:26" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
@@ -2872,7 +2872,7 @@
   <dimension ref="B1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2891,19 +2891,19 @@
     <row r="1" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="29"/>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="70"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="72"/>
     </row>
     <row r="3" spans="2:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="47"/>

--- a/controlsignals.xlsx
+++ b/controlsignals.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Control Signals" sheetId="1" r:id="rId1"/>
@@ -1469,8 +1469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="A4" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
       <selection pane="topRight" activeCell="B4" sqref="B4"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
@@ -2871,8 +2871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A1B0147-F9D6-4ADB-A929-D273D9BE7356}">
   <dimension ref="B1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2882,7 +2882,8 @@
     <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.75" customWidth="1"/>
+    <col min="8" max="8" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.75" customWidth="1"/>
     <col min="10" max="10" width="19.875" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="10.75" customWidth="1"/>
     <col min="13" max="13" width="14.875" bestFit="1" customWidth="1"/>
